--- a/Resultados/Brecha no docente.xlsx
+++ b/Resultados/Brecha no docente.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="UGEL sin racio" sheetId="1" r:id="rId1"/>
     <sheet name="UGEL con racio" sheetId="2" r:id="rId2"/>
+    <sheet name="Region con racio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3710" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="994">
   <si>
     <t>d_dpto</t>
   </si>
@@ -90670,4 +90671,557 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>-32</v>
+      </c>
+      <c r="C2">
+        <v>-220</v>
+      </c>
+      <c r="D2">
+        <v>-153</v>
+      </c>
+      <c r="E2">
+        <v>-29</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3">
+        <v>115</v>
+      </c>
+      <c r="C3">
+        <v>-503</v>
+      </c>
+      <c r="D3">
+        <v>-360</v>
+      </c>
+      <c r="E3">
+        <v>-152</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>-20</v>
+      </c>
+      <c r="C4">
+        <v>-155</v>
+      </c>
+      <c r="D4">
+        <v>-152</v>
+      </c>
+      <c r="E4">
+        <v>-12</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>-456</v>
+      </c>
+      <c r="D5">
+        <v>-327</v>
+      </c>
+      <c r="E5">
+        <v>-23</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>-26</v>
+      </c>
+      <c r="C6">
+        <v>-254</v>
+      </c>
+      <c r="D6">
+        <v>-177</v>
+      </c>
+      <c r="E6">
+        <v>-82</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>-181</v>
+      </c>
+      <c r="C7">
+        <v>-580</v>
+      </c>
+      <c r="D7">
+        <v>-443</v>
+      </c>
+      <c r="E7">
+        <v>-106</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>-490</v>
+      </c>
+      <c r="D8">
+        <v>-210</v>
+      </c>
+      <c r="E8">
+        <v>-85</v>
+      </c>
+      <c r="F8">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>-214</v>
+      </c>
+      <c r="C9">
+        <v>-508</v>
+      </c>
+      <c r="D9">
+        <v>-429</v>
+      </c>
+      <c r="E9">
+        <v>-57</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>-99</v>
+      </c>
+      <c r="D10">
+        <v>-103</v>
+      </c>
+      <c r="E10">
+        <v>-25</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>-177</v>
+      </c>
+      <c r="C11">
+        <v>-412</v>
+      </c>
+      <c r="D11">
+        <v>-326</v>
+      </c>
+      <c r="E11">
+        <v>-115</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>-108</v>
+      </c>
+      <c r="C12">
+        <v>-496</v>
+      </c>
+      <c r="D12">
+        <v>-248</v>
+      </c>
+      <c r="E12">
+        <v>-150</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>-117</v>
+      </c>
+      <c r="C13">
+        <v>-555</v>
+      </c>
+      <c r="D13">
+        <v>-371</v>
+      </c>
+      <c r="E13">
+        <v>-118</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>-461</v>
+      </c>
+      <c r="C14">
+        <v>-1016</v>
+      </c>
+      <c r="D14">
+        <v>-565</v>
+      </c>
+      <c r="E14">
+        <v>-270</v>
+      </c>
+      <c r="F14">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15">
+        <v>-422</v>
+      </c>
+      <c r="C15">
+        <v>-677</v>
+      </c>
+      <c r="D15">
+        <v>-288</v>
+      </c>
+      <c r="E15">
+        <v>-200</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>-3180</v>
+      </c>
+      <c r="D16">
+        <v>-1388</v>
+      </c>
+      <c r="E16">
+        <v>-794</v>
+      </c>
+      <c r="F16">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>-171</v>
+      </c>
+      <c r="C17">
+        <v>-552</v>
+      </c>
+      <c r="D17">
+        <v>-306</v>
+      </c>
+      <c r="E17">
+        <v>-173</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18">
+        <v>-177</v>
+      </c>
+      <c r="C18">
+        <v>-822</v>
+      </c>
+      <c r="D18">
+        <v>-461</v>
+      </c>
+      <c r="E18">
+        <v>-95</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>-137</v>
+      </c>
+      <c r="C19">
+        <v>-87</v>
+      </c>
+      <c r="D19">
+        <v>-55</v>
+      </c>
+      <c r="E19">
+        <v>-37</v>
+      </c>
+      <c r="F19">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>-74</v>
+      </c>
+      <c r="D20">
+        <v>-42</v>
+      </c>
+      <c r="E20">
+        <v>-21</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>-30</v>
+      </c>
+      <c r="C21">
+        <v>-129</v>
+      </c>
+      <c r="D21">
+        <v>-78</v>
+      </c>
+      <c r="E21">
+        <v>-44</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22">
+        <v>-536</v>
+      </c>
+      <c r="C22">
+        <v>-1087</v>
+      </c>
+      <c r="D22">
+        <v>-632</v>
+      </c>
+      <c r="E22">
+        <v>-367</v>
+      </c>
+      <c r="F22">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23">
+        <v>-43</v>
+      </c>
+      <c r="C23">
+        <v>-395</v>
+      </c>
+      <c r="D23">
+        <v>-284</v>
+      </c>
+      <c r="E23">
+        <v>-145</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24">
+        <v>-191</v>
+      </c>
+      <c r="C24">
+        <v>-782</v>
+      </c>
+      <c r="D24">
+        <v>-442</v>
+      </c>
+      <c r="E24">
+        <v>-138</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>-137</v>
+      </c>
+      <c r="D25">
+        <v>-77</v>
+      </c>
+      <c r="E25">
+        <v>-26</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>-195</v>
+      </c>
+      <c r="D26">
+        <v>-76</v>
+      </c>
+      <c r="E26">
+        <v>-65</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27">
+        <v>-314</v>
+      </c>
+      <c r="C27">
+        <v>-414</v>
+      </c>
+      <c r="D27">
+        <v>-210</v>
+      </c>
+      <c r="E27">
+        <v>-170</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>